--- a/API 설계.xlsx
+++ b/API 설계.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6690" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11700" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="API 설계" sheetId="1" r:id="rId4"/>
@@ -21,19 +21,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <x:si>
-    <x:t>/products?action=info&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=list</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productacreate.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productUpdate.jsp</x:t>
+    <x:t>productList.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>redirect URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productInfo.jsp</x:t>
   </x:si>
   <x:si>
     <x:t>CREATE TABLE `product`.`new_table` (
@@ -45,88 +39,94 @@
 PRIMARY KEY (`id`));</x:t>
   </x:si>
   <x:si>
-    <x:t>productList.jsp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>redirect URI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productInfo.jsp</x:t>
+    <x:t>/products?action=info&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">화면표시, </x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품목록조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>info()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>list()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=list</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=delete&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/products?action=update&amp;id=1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>create()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>delete()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>update()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productUpdate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>productacreate.jsp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메서드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>put</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>get</x:t>
   </x:si>
   <x:si>
     <x:t>DB</x:t>
   </x:si>
   <x:si>
-    <x:t>get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메서드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URI</x:t>
+    <x:t>삭제</x:t>
   </x:si>
   <x:si>
     <x:t>기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">화면표시, </x:t>
-  </x:si>
-  <x:si>
-    <x:t>post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품목록조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품정보조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>info()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>list()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>create()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>delete()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>update()</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=delete&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/products?action=update&amp;id=1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삭제</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -189,7 +189,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="15">
+  <x:borders count="14">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -304,16 +304,16 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top style="thin">
-        <x:color indexed="64"/>
+        <x:color rgb="ff000000"/>
       </x:top>
-      <x:bottom>
-        <x:color indexed="64"/>
+      <x:bottom style="thin">
+        <x:color rgb="ff000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -323,7 +323,7 @@
       <x:right style="thin">
         <x:color indexed="64"/>
       </x:right>
-      <x:top>
+      <x:top style="thin">
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
@@ -340,6 +340,20 @@
       <x:top>
         <x:color indexed="64"/>
       </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
       <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
@@ -369,34 +383,6 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom>
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="ff000000"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ff000000"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ff000000"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="thin">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -419,6 +405,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -461,19 +450,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -502,14 +484,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -528,6 +510,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -567,39 +562,30 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1200,221 +1186,220 @@
   <x:dimension ref="A2:H19"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
+      <x:selection activeCell="G16" activeCellId="0" sqref="G16:G16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.62890625" defaultRowHeight="15.75" customHeight="1"/>
   <x:cols>
-    <x:col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <x:col min="2" max="2" width="9.25390625" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="36.62890625" style="3" customWidth="1"/>
-    <x:col min="5" max="5" width="23.62890625" style="3" customWidth="1"/>
-    <x:col min="6" max="6" width="34.28515625" style="3" customWidth="1"/>
+    <x:col min="1" max="1" width="36" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="9.25390625" style="3" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="36.62890625" style="4" customWidth="1"/>
+    <x:col min="5" max="5" width="23.62890625" style="4" customWidth="1"/>
+    <x:col min="6" max="6" width="34.28515625" style="4" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7" ht="16.399999999999999">
-      <x:c r="A2" s="12" t="s">
+      <x:c r="A2" s="13" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B2" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C2" s="13" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D2" s="13" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F2" s="19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="12"/>
+    </x:row>
+    <x:row r="3" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A3" s="25" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="26" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D3" s="25" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E3" s="23" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F3" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G3" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7" ht="16.399999999999999">
+      <x:c r="A4" s="25"/>
+      <x:c r="B4" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="26"/>
+      <x:c r="D4" s="25"/>
+      <x:c r="E4" s="24"/>
+      <x:c r="G4" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7" ht="27.75" customHeight="1">
+      <x:c r="A5" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C5" s="17" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D5" s="14" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E5" s="17" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F5" s="14"/>
+      <x:c r="G5" s="12"/>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="16.399999999999999" customHeight="1">
+      <x:c r="A6" s="25" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B6" s="14" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="27" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D6" s="25" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
+      <x:c r="E6" s="28" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F6" s="14"/>
+      <x:c r="G6" s="14" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="16.399999999999999">
+      <x:c r="A7" s="25"/>
+      <x:c r="B7" s="14" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C7" s="27"/>
+      <x:c r="D7" s="25"/>
+      <x:c r="E7" s="29"/>
+      <x:c r="F7" s="18" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G7" s="14" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="16.399999999999999">
+      <x:c r="A8" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="7" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D8" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="8" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F8" s="6"/>
+      <x:c r="G8" s="12"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="16.399999999999999">
+      <x:c r="A9" s="14" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C2" s="12" t="s">
+      <x:c r="B9" s="14" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D2" s="12" t="s">
+      <x:c r="C9" s="14" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="E2" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F2" s="28" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G2" s="11"/>
-    </x:row>
-    <x:row r="3" spans="1:7" ht="16.399999999999999" customHeight="1">
-      <x:c r="A3" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B3" s="14" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C3" s="23" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D3" s="22" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="E3" s="20" t="s">
+      <x:c r="D9" s="14" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E9" s="14" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F9" s="18" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G9" s="12" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" s="2" customFormat="1" ht="16.399999999999999">
+      <x:c r="A10" s="10"/>
+      <x:c r="B10" s="10"/>
+      <x:c r="C10" s="10"/>
+      <x:c r="D10" s="10"/>
+      <x:c r="E10" s="10"/>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="1"/>
+      <x:c r="H10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:2" customHeight="1">
+      <x:c r="A11" s="12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B11" s="2"/>
+    </x:row>
+    <x:row r="12" spans="1:2" customHeight="1">
+      <x:c r="A12" s="20" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F3" s="29"/>
-      <x:c r="G3" s="13" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7" ht="16.399999999999999">
-      <x:c r="A4" s="22"/>
-      <x:c r="B4" s="15" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C4" s="23"/>
-      <x:c r="D4" s="22"/>
-      <x:c r="E4" s="21"/>
-      <x:c r="F4" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G4" s="13" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7" ht="27.75" customHeight="1">
-      <x:c r="A5" s="13" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="13" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E5" s="16" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F5" s="13"/>
-      <x:c r="G5" s="11"/>
-    </x:row>
-    <x:row r="6" spans="1:7" ht="16.399999999999999" customHeight="1">
-      <x:c r="A6" s="22" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B6" s="13" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C6" s="24" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="D6" s="22" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E6" s="25" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F6" s="13"/>
-      <x:c r="G6" s="13" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="16.399999999999999">
-      <x:c r="A7" s="22"/>
-      <x:c r="B7" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C7" s="24"/>
-      <x:c r="D7" s="22"/>
-      <x:c r="E7" s="26"/>
-      <x:c r="F7" s="27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G7" s="13" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="16.399999999999999">
-      <x:c r="A8" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B8" s="6" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D8" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E8" s="7" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F8" s="5"/>
-      <x:c r="G8" s="11"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="16.399999999999999">
-      <x:c r="A9" s="13" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B9" s="13" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C9" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D9" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E9" s="13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F9" s="27" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G9" s="11" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:8" s="1" customFormat="1" ht="16.399999999999999">
-      <x:c r="A10" s="9"/>
-      <x:c r="B10" s="9"/>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="9"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10"/>
-      <x:c r="H10"/>
-    </x:row>
-    <x:row r="11" spans="1:2" customHeight="1">
-      <x:c r="A11" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1"/>
-    </x:row>
-    <x:row r="12" spans="1:2" customHeight="1">
-      <x:c r="A12" s="17" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B12" s="1"/>
+      <x:c r="B12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:2" customHeight="1">
-      <x:c r="A13" s="18"/>
-      <x:c r="B13" s="1"/>
+      <x:c r="A13" s="21"/>
+      <x:c r="B13" s="2"/>
     </x:row>
     <x:row r="14" spans="1:2" customHeight="1">
-      <x:c r="A14" s="18"/>
-      <x:c r="B14" s="1"/>
+      <x:c r="A14" s="21"/>
+      <x:c r="B14" s="2"/>
     </x:row>
     <x:row r="15" spans="1:2" customHeight="1">
-      <x:c r="A15" s="18"/>
-      <x:c r="B15" s="1"/>
+      <x:c r="A15" s="21"/>
+      <x:c r="B15" s="2"/>
     </x:row>
     <x:row r="16" spans="1:2" customHeight="1">
-      <x:c r="A16" s="18"/>
-      <x:c r="B16" s="1"/>
+      <x:c r="A16" s="21"/>
+      <x:c r="B16" s="2"/>
     </x:row>
     <x:row r="17" spans="1:2" customHeight="1">
-      <x:c r="A17" s="18"/>
-      <x:c r="B17" s="1"/>
+      <x:c r="A17" s="21"/>
+      <x:c r="B17" s="2"/>
     </x:row>
     <x:row r="18" spans="1:2" customHeight="1">
-      <x:c r="A18" s="19"/>
-      <x:c r="B18" s="1"/>
+      <x:c r="A18" s="22"/>
+      <x:c r="B18" s="2"/>
     </x:row>
     <x:row r="19" spans="1:2" customHeight="1">
-      <x:c r="A19" s="1"/>
-      <x:c r="B19" s="1"/>
+      <x:c r="A19" s="2"/>
+      <x:c r="B19" s="2"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="9">
